--- a/Projeto_Entrega1/Projeto1.xlsx
+++ b/Projeto_Entrega1/Projeto1.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="262">
-  <si>
-    <t>HDI</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009 </t>
-  </si>
-  <si>
-    <t>Services, etc., value added (% of GDP)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="264">
+  <si>
+    <t>Paíshdi</t>
+  </si>
+  <si>
+    <t>IDH em 2009</t>
+  </si>
+  <si>
+    <t>País2009</t>
+  </si>
+  <si>
+    <t>População Urbana em 2009</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Setor de Serviços em 2009</t>
   </si>
   <si>
     <t>Abkhazia</t>
@@ -1168,20 +1174,20 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>2009</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1189,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>47.6076569015817</v>
@@ -1206,19 +1212,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0.387</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>22.9676</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>60.2392552446124</v>
@@ -1229,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>30.9609673313534</v>
@@ -1246,19 +1252,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0.734</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>51.2184</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1266,19 +1272,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0.6909999999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>70.95699999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1286,16 +1292,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>92.639</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>30.75124818408</v>
@@ -1306,16 +1312,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>88.3126</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>76.2857582806998</v>
@@ -1326,19 +1332,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0.481</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>57.4918</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>60.6974838521879</v>
@@ -1349,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>45.2804497217273</v>
@@ -1366,16 +1372,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>30.0322</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1383,19 +1389,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0.788</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>92.15560000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>76.3741135130015</v>
@@ -1406,19 +1412,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0.712</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>64.0896</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>69.3540401956075</v>
@@ -1429,16 +1435,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>46.7416</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>32.2689347271862</v>
@@ -1449,19 +1455,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0.926</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>88.8732</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>83.58276749758041</v>
@@ -1472,19 +1478,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>0.879</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>67.27</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1492,16 +1498,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>53.1986</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>52.6140789322814</v>
@@ -1512,19 +1518,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>0.769</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>83.8648</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>73.7625239748852</v>
@@ -1535,19 +1541,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0.805</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>88.5782</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G19">
         <v>48.2902987702476</v>
@@ -1558,19 +1564,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>0.491</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>27.4424</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>77.6918642559055</v>
@@ -1581,19 +1587,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>0.79</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>43.3476</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1601,19 +1607,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>0.746</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>74.1628</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1621,19 +1627,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>0.883</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>97.42319999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>90.43064506306619</v>
@@ -1644,19 +1650,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>0.696</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>45.2326</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>38.0800287641174</v>
@@ -1667,19 +1673,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>0.422</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>43.607</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>49.9261496086776</v>
@@ -1690,16 +1696,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>63.9029060181296</v>
@@ -1710,16 +1716,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>34.0274</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>56.6483841587397</v>
@@ -1730,19 +1736,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>0.656</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>65.95699999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>68.5006164409302</v>
@@ -1753,19 +1759,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>0.73</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>47.2384</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1773,19 +1779,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>0.626</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>60.2456</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>63.8204206800288</v>
@@ -1796,19 +1802,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>0.708</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>84.0348</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1816,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1830,19 +1836,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>0.835</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>75.1812</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>41.2911002159442</v>
@@ -1853,19 +1859,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>0.766</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>72.05500000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1873,19 +1879,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>0.326</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>24.841</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1893,19 +1899,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>0.308</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>10.3886</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>74.3338516445571</v>
@@ -1916,19 +1922,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>0.513</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>19.686</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1936,19 +1942,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>0.475</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38">
         <v>50.9178</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G38">
         <v>28.7110573653437</v>
@@ -1959,19 +1965,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>0.903</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>80.4676</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1979,19 +1985,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>0.5639999999999999</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>61.0042</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1999,16 +2005,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>53.0985234463629</v>
@@ -2019,19 +2025,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>0.334</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <v>38.6926</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G42">
         <v>43.4253048426404</v>
@@ -2042,19 +2048,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>0.323</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>21.7166</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>58.4938466825546</v>
@@ -2065,16 +2071,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>30.9942</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G44">
         <v>41.5813789884457</v>
@@ -2085,19 +2091,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>0.798</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E45">
         <v>88.6782</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G45">
         <v>33.0481316402775</v>
@@ -2108,19 +2114,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>0.674</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>47.8852</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G46">
         <v>24.3771558957144</v>
@@ -2131,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G47">
         <v>65.35654752950001</v>
@@ -2148,13 +2154,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G48">
         <v>49.8576243295163</v>
@@ -2165,19 +2171,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>0.702</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>74.73220000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G49">
         <v>68.2356661581278</v>
@@ -2188,19 +2194,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>0.43</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>27.951</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>74.60085118231579</v>
@@ -2211,19 +2217,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>0.277</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>33.2134</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2231,19 +2237,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>0.523</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>62.776</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G52">
         <v>60.0299206372592</v>
@@ -2254,13 +2260,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G53">
         <v>76.749617594688</v>
@@ -2271,19 +2277,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>0.738</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E54">
         <v>63.69</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2291,19 +2297,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>0.397</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <v>49.8128</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G55">
         <v>70.50698805277609</v>
@@ -2314,19 +2320,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>0.793</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>57.3108</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G56">
         <v>61.3321081815</v>
@@ -2337,19 +2343,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>0.77</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>75.292</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G57">
         <v>56.5800415938621</v>
@@ -2360,19 +2366,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>0.837</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>70.13760000000001</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G58">
         <v>48.9984667926599</v>
@@ -2383,19 +2389,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>0.863</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E59">
         <v>73.5108</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59">
         <v>60.4342215930165</v>
@@ -2406,13 +2412,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G60">
         <v>4.2180241078468</v>
@@ -2423,19 +2429,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>0.891</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>86.60720000000001</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G61">
         <v>63.0271692130297</v>
@@ -2446,19 +2452,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>0.425</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E62">
         <v>76.95140000000001</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2466,19 +2472,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>0.722</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E63">
         <v>67.02800000000001</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G63">
         <v>38.4555873149435</v>
@@ -2489,19 +2495,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>0.68</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E64">
         <v>68.3946</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2509,13 +2515,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G65">
         <v>69.4336399687209</v>
@@ -2526,19 +2532,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>0.716</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>66.2118</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G66">
         <v>69.3467470601952</v>
@@ -2549,19 +2555,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>0.638</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E67">
         <v>43.3054</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G67">
         <v>79.2123182071514</v>
@@ -2572,19 +2578,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C68">
         <v>0.669</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E68">
         <v>63.7536</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2592,19 +2598,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C69">
         <v>0.534</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E69">
         <v>39.2446</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G69">
         <v>41.1483971656371</v>
@@ -2615,16 +2621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <v>20.531</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G70">
         <v>57.0765097870967</v>
@@ -2635,13 +2641,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G71">
         <v>68.7780748511007</v>
@@ -2652,19 +2658,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <v>0.828</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E72">
         <v>69.4538</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G72">
         <v>72.42455873531679</v>
@@ -2675,19 +2681,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C73">
         <v>0.353</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <v>16.5456</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G73">
         <v>49.195139047976</v>
@@ -2698,16 +2704,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E74">
         <v>40.697</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2715,13 +2721,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2729,19 +2735,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C76">
         <v>0.6850000000000001</v>
       </c>
       <c r="D76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>51.4438</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2749,19 +2755,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C77">
         <v>0.877</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>83.42740000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G77">
         <v>79.68228033313321</v>
@@ -2772,19 +2778,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C78">
         <v>0.88</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78">
         <v>84.49420000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2792,13 +2798,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G79">
         <v>67.68739274385059</v>
@@ -2809,16 +2815,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E80">
         <v>51.4918</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G80">
         <v>30.9555871272221</v>
@@ -2829,19 +2835,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>0.664</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E81">
         <v>85.36920000000001</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2849,19 +2855,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C82">
         <v>0.413</v>
       </c>
       <c r="D82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E82">
         <v>55.949</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G82">
         <v>45.1302746782071</v>
@@ -2872,19 +2878,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C83">
         <v>0.724</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E83">
         <v>52.6876</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2892,19 +2898,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84">
         <v>0.9</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84">
         <v>73.723</v>
       </c>
       <c r="F84" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G84">
         <v>61.348965544854</v>
@@ -2915,19 +2921,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C85">
         <v>0.527</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85">
         <v>50.5108</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G85">
         <v>92.56820932507379</v>
@@ -2938,13 +2944,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G86">
         <v>66.6535055662866</v>
@@ -2955,19 +2961,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C87">
         <v>0.863</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87">
         <v>61.0384</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G87">
         <v>67.66872168616671</v>
@@ -2978,16 +2984,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88">
         <v>84.078</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G88">
         <v>55.2736975459913</v>
@@ -2998,16 +3004,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89">
         <v>38.5036</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G89">
         <v>37.0221835417391</v>
@@ -3018,13 +3024,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3032,16 +3038,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91">
         <v>93.1598</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3049,19 +3055,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C92">
         <v>0.569</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E92">
         <v>48.8968</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G92">
         <v>67.1497053902894</v>
@@ -3072,13 +3078,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3086,19 +3092,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94">
         <v>0.341</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E94">
         <v>34.5434</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3106,19 +3112,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C95">
         <v>0.348</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E95">
         <v>42.485</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G95">
         <v>73.0427454454275</v>
@@ -3129,19 +3135,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C96">
         <v>0.624</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>28.3104</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G96">
         <v>71.7420861362374</v>
@@ -3152,19 +3158,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C97">
         <v>0.449</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97">
         <v>50.4084</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G97">
         <v>71.90540863709199</v>
@@ -3175,13 +3181,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G98">
         <v>65.4592257213242</v>
@@ -3192,19 +3198,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C99">
         <v>0.619</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99">
         <v>50.9914</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G99">
         <v>53.2723521036751</v>
@@ -3215,19 +3221,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C100">
         <v>0.888</v>
       </c>
       <c r="D100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E100">
         <v>100</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G100">
         <v>53.6233361201883</v>
@@ -3238,19 +3244,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101">
         <v>0.8110000000000001</v>
       </c>
       <c r="D101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101">
         <v>68.44499999999999</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G101">
         <v>61.8431317877308</v>
@@ -3261,19 +3267,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102">
         <v>0.897</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102">
         <v>93.50660000000001</v>
       </c>
       <c r="F102" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3281,19 +3287,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103">
         <v>0.535</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103">
         <v>30.591</v>
       </c>
       <c r="F103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G103">
         <v>60.4469898919106</v>
@@ -3304,19 +3310,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C104">
         <v>0.607</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104">
         <v>49.1266</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G104">
         <v>68</v>
@@ -3327,19 +3333,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105">
         <v>0.703</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105">
         <v>68.66200000000001</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3347,19 +3353,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C106">
         <v>0.5649999999999999</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>66.63720000000001</v>
       </c>
       <c r="F106" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G106">
         <v>52.3586573079481</v>
@@ -3370,19 +3376,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C107">
         <v>0.905</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107">
         <v>61.6138</v>
       </c>
       <c r="F107" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G107">
         <v>39.3117008559594</v>
@@ -3393,16 +3399,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E108">
         <v>50.7124</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G108">
         <v>76.0559609599318</v>
@@ -3413,19 +3419,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C109">
         <v>0.884</v>
       </c>
       <c r="D109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109">
         <v>91.762</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G109">
         <v>70.7439379021347</v>
@@ -3436,19 +3442,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <v>0.87</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110">
         <v>68.0936</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G110">
         <v>59.3928438240496</v>
@@ -3459,19 +3465,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C111">
         <v>0.724</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111">
         <v>51.999</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3479,19 +3485,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C112">
         <v>0.895</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112">
         <v>89.6284</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3499,13 +3505,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3513,19 +3519,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C114">
         <v>0.694</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114">
         <v>82.21380000000001</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G114">
         <v>69.6901560887289</v>
@@ -3536,19 +3542,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C115">
         <v>0.733</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E115">
         <v>53.9294</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G115">
         <v>87.2685322132166</v>
@@ -3559,19 +3565,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C116">
         <v>0.499</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E116">
         <v>23.1918</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G116">
         <v>88.9607973363477</v>
@@ -3582,16 +3588,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E117">
         <v>43.7558</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G117">
         <v>61.3578555401462</v>
@@ -3602,16 +3608,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E118">
         <v>60.129</v>
       </c>
       <c r="F118" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G118">
         <v>54.8869426022031</v>
@@ -3622,19 +3628,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C119">
         <v>0.889</v>
       </c>
       <c r="D119" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119">
         <v>82.61539999999999</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G119">
         <v>53.3597095034875</v>
@@ -3645,13 +3651,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G120">
         <v>46.6683221955505</v>
@@ -3662,13 +3668,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G121">
         <v>81.4977923950262</v>
@@ -3679,19 +3685,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C122">
         <v>0.757</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E122">
         <v>98.229</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3699,19 +3705,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C123">
         <v>0.611</v>
       </c>
       <c r="D123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E123">
         <v>35.3012</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G123">
         <v>65.1911590209762</v>
@@ -3722,19 +3728,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C124">
         <v>0.514</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E124">
         <v>31.974</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3742,19 +3748,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C125">
         <v>0.798</v>
       </c>
       <c r="D125" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E125">
         <v>67.7728</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G125">
         <v>44.7142322560771</v>
@@ -3765,19 +3771,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C126">
         <v>0.733</v>
       </c>
       <c r="D126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>87.0228</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G126">
         <v>68.123267917166</v>
@@ -3788,19 +3794,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C127">
         <v>0.44</v>
       </c>
       <c r="D127" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E127">
         <v>26.1328</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3808,19 +3814,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C128">
         <v>0.32</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E128">
         <v>47.451</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G128">
         <v>62.4217619729039</v>
@@ -3831,19 +3837,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C129">
         <v>0.763</v>
       </c>
       <c r="D129" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E129">
         <v>77.42319999999999</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3851,16 +3857,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130">
         <v>14.5046</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G130">
         <v>76.84271487334919</v>
@@ -3871,19 +3877,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C131">
         <v>0.802</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E131">
         <v>66.9278</v>
       </c>
       <c r="F131" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3891,19 +3897,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C132">
         <v>0.863</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132">
         <v>84.9344</v>
       </c>
       <c r="F132" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G132">
         <v>47.351762068964</v>
@@ -3914,16 +3920,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E133">
         <v>100</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G133">
         <v>69.9365876563722</v>
@@ -3934,19 +3940,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C134">
         <v>0.725</v>
       </c>
       <c r="D134" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134">
         <v>59.1622</v>
       </c>
       <c r="F134" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G134">
         <v>55.0196966426143</v>
@@ -3957,19 +3963,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C135">
         <v>0.483</v>
       </c>
       <c r="D135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E135">
         <v>31.3068</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G135">
         <v>44.9252643248447</v>
@@ -3980,19 +3986,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C136">
         <v>0.387</v>
       </c>
       <c r="D136" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E136">
         <v>15.4452</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G136">
         <v>37.3552107780452</v>
@@ -4003,19 +4009,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C137">
         <v>0.752</v>
       </c>
       <c r="D137" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137">
         <v>71.1198</v>
       </c>
       <c r="F137" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G137">
         <v>57.9689133616784</v>
@@ -4026,19 +4032,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C138">
         <v>0.65</v>
       </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E138">
         <v>38.7452</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G138">
         <v>49.6063494367701</v>
@@ -4049,19 +4055,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C139">
         <v>0.352</v>
       </c>
       <c r="D139" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E139">
         <v>33.6404</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G139">
         <v>74.3616787260286</v>
@@ -4072,19 +4078,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C140">
         <v>0.827</v>
       </c>
       <c r="D140" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140">
         <v>94.4658</v>
       </c>
       <c r="F140" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4092,16 +4098,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D141" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E141">
         <v>71.218</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4109,13 +4115,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D142" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G142">
         <v>50.9437337587755</v>
@@ -4126,19 +4132,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C143">
         <v>0.447</v>
       </c>
       <c r="D143" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E143">
         <v>41.0546</v>
       </c>
       <c r="F143" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4146,19 +4152,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C144">
         <v>0.722</v>
       </c>
       <c r="D144" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144">
         <v>41.8592</v>
       </c>
       <c r="F144" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4166,13 +4172,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F145" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4180,19 +4186,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C146">
         <v>0.762</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>77.52160000000001</v>
       </c>
       <c r="F146" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G146">
         <v>60.0681233761399</v>
@@ -4203,19 +4209,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C147">
         <v>0.635</v>
       </c>
       <c r="D147" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E147">
         <v>22.4772</v>
       </c>
       <c r="F147" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4223,19 +4229,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C148">
         <v>0.638</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E148">
         <v>46.1814</v>
       </c>
       <c r="F148" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G148">
         <v>53.705308682691</v>
@@ -4246,16 +4252,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E149">
         <v>100</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4263,19 +4269,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C150">
         <v>0.642</v>
       </c>
       <c r="D150" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E150">
         <v>66.55240000000001</v>
       </c>
       <c r="F150" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G150">
         <v>77.0658603337159</v>
@@ -4286,19 +4292,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C151">
         <v>0.768</v>
       </c>
       <c r="D151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E151">
         <v>62.9168</v>
       </c>
       <c r="F151" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G151">
         <v>19.5936521904223</v>
@@ -4309,13 +4315,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D152" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F152" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G152">
         <v>59.4659475590297</v>
@@ -4326,19 +4332,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C153">
         <v>0.575</v>
       </c>
       <c r="D153" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E153">
         <v>56.3348</v>
       </c>
       <c r="F153" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G153">
         <v>57.3504906106743</v>
@@ -4349,19 +4355,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C154">
         <v>0.312</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E154">
         <v>30.7662</v>
       </c>
       <c r="F154" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G154">
         <v>55.2091383829028</v>
@@ -4372,19 +4378,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C155">
         <v>0.474</v>
       </c>
       <c r="D155" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E155">
         <v>31.5434</v>
       </c>
       <c r="F155" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G155">
         <v>64.6115284441283</v>
@@ -4395,19 +4401,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C156">
         <v>0.617</v>
       </c>
       <c r="D156" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E156">
         <v>37.263</v>
       </c>
       <c r="F156" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G156">
         <v>74.77107067707399</v>
@@ -4418,13 +4424,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D157" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F157" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G157">
         <v>49.2554463015983</v>
@@ -4435,19 +4441,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C158">
         <v>0.449</v>
       </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E158">
         <v>16.3476</v>
       </c>
       <c r="F158" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4455,19 +4461,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C159">
         <v>0.905</v>
       </c>
       <c r="D159" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E159">
         <v>82.232</v>
       </c>
       <c r="F159" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G159">
         <v>66.8802534477457</v>
@@ -4478,13 +4484,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D160" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F160" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G160">
         <v>61.6089635158101</v>
@@ -4495,16 +4501,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D161" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E161">
         <v>62.1544</v>
       </c>
       <c r="F161" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G161">
         <v>51.7545147224448</v>
@@ -4515,19 +4521,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C162">
         <v>0.906</v>
       </c>
       <c r="D162" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E162">
         <v>86.1656</v>
       </c>
       <c r="F162" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G162">
         <v>78.508516983421</v>
@@ -4538,13 +4544,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F163" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G163">
         <v>79.0692252955422</v>
@@ -4555,19 +4561,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C164">
         <v>0.582</v>
       </c>
       <c r="D164" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E164">
         <v>56.9882</v>
       </c>
       <c r="F164" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4575,19 +4581,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C165">
         <v>0.285</v>
       </c>
       <c r="D165" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E165">
         <v>17.4392</v>
       </c>
       <c r="F165" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G165">
         <v>74.1999024971453</v>
@@ -4598,19 +4604,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C166">
         <v>0.449</v>
       </c>
       <c r="D166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E166">
         <v>48.3508</v>
       </c>
       <c r="F166" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G166">
         <v>61.7952618383616</v>
@@ -4621,13 +4627,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D167" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F167" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4635,13 +4641,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D168" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F168" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4649,13 +4655,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D169" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F169" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G169">
         <v>37.3905178434448</v>
@@ -4666,16 +4672,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D170" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E170">
         <v>91.23139999999999</v>
       </c>
       <c r="F170" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G170">
         <v>61.0186208486982</v>
@@ -4686,19 +4692,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C171">
         <v>0.9409999999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E171">
         <v>78.7796</v>
       </c>
       <c r="F171" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G171">
         <v>62.4143641235827</v>
@@ -4709,19 +4715,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C172">
         <v>0.703</v>
       </c>
       <c r="D172" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E172">
         <v>72.9318</v>
       </c>
       <c r="F172" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G172">
         <v>78.9381197412567</v>
@@ -4732,19 +4738,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C173">
         <v>0.499</v>
       </c>
       <c r="D173" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E173">
         <v>35.6018</v>
       </c>
       <c r="F173" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G173">
         <v>25.1910927096266</v>
@@ -4755,19 +4761,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C174">
         <v>0.777</v>
       </c>
       <c r="D174" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E174">
         <v>82.23439999999999</v>
       </c>
       <c r="F174" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G174">
         <v>71.62279893112699</v>
@@ -4778,19 +4784,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C175">
         <v>0.76</v>
       </c>
       <c r="D175" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E175">
         <v>73.837</v>
       </c>
       <c r="F175" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G175">
         <v>60.8067638979921</v>
@@ -4801,19 +4807,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C176">
         <v>0.457</v>
       </c>
       <c r="D176" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E176">
         <v>12.459</v>
       </c>
       <c r="F176" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G176">
         <v>66.370193771773</v>
@@ -4824,19 +4830,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C177">
         <v>0.651</v>
       </c>
       <c r="D177" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E177">
         <v>60.7922</v>
       </c>
       <c r="F177" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G177">
         <v>55.0008682758106</v>
@@ -4847,19 +4853,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C178">
         <v>0.714</v>
       </c>
       <c r="D178" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E178">
         <v>76.5356</v>
       </c>
       <c r="F178" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4867,19 +4873,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C179">
         <v>0.636</v>
       </c>
       <c r="D179" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E179">
         <v>48.525</v>
       </c>
       <c r="F179" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G179">
         <v>65.66118394680269</v>
@@ -4890,13 +4896,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D180" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F180" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G180">
         <v>71.2562736105682</v>
@@ -4907,19 +4913,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C181">
         <v>0.8070000000000001</v>
       </c>
       <c r="D181" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E181">
         <v>61.0472</v>
       </c>
       <c r="F181" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G181">
         <v>57.6365812033689</v>
@@ -4930,19 +4936,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C182">
         <v>0.805</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E182">
         <v>59.9198</v>
       </c>
       <c r="F182" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G182">
         <v>44.298628845246</v>
@@ -4953,16 +4959,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E183">
         <v>98.54600000000001</v>
       </c>
       <c r="F183" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G183">
         <v>56.3959955506118</v>
@@ -4973,19 +4979,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C184">
         <v>0.8179999999999999</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E184">
         <v>98.41379999999999</v>
       </c>
       <c r="F184" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G184">
         <v>40.7074778062197</v>
@@ -4996,13 +5002,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D185" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F185" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G185">
         <v>73.610392982326</v>
@@ -5013,19 +5019,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C186">
         <v>0.778</v>
       </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E186">
         <v>52.786</v>
       </c>
       <c r="F186" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G186">
         <v>72.4026951737395</v>
@@ -5036,19 +5042,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C187">
         <v>0.747</v>
       </c>
       <c r="D187" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E187">
         <v>73.5076</v>
       </c>
       <c r="F187" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G187">
         <v>46.4702255572141</v>
@@ -5059,19 +5065,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C188">
         <v>0.419</v>
       </c>
       <c r="D188" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E188">
         <v>18.5558</v>
       </c>
       <c r="F188" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G188">
         <v>53.9068895584176</v>
@@ -5082,13 +5088,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D189" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F189" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G189">
         <v>46.9284953566556</v>
@@ -5099,13 +5105,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D190" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F190" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G190">
         <v>45.1970132115607</v>
@@ -5116,16 +5122,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D191" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E191">
         <v>31.9676</v>
       </c>
       <c r="F191" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5133,16 +5139,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D192" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E192">
         <v>19.2778</v>
       </c>
       <c r="F192" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5150,13 +5156,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D193" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F193" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G193">
         <v>61.4910658182365</v>
@@ -5167,16 +5173,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D194" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E194">
         <v>48.539</v>
       </c>
       <c r="F194" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G194">
         <v>46.3201415983958</v>
@@ -5187,13 +5193,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D195" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G195">
         <v>59.5239380765758</v>
@@ -5204,19 +5210,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C196">
         <v>0.6850000000000001</v>
       </c>
       <c r="D196" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E196">
         <v>20.306</v>
       </c>
       <c r="F196" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G196">
         <v>64.7105234331499</v>
@@ -5227,16 +5233,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D197" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E197">
         <v>94.075</v>
       </c>
       <c r="F197" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G197">
         <v>34</v>
@@ -5247,19 +5253,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C198">
         <v>0.503</v>
       </c>
       <c r="D198" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E198">
         <v>61.195</v>
       </c>
       <c r="F198" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5267,19 +5273,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C199">
         <v>0.763</v>
       </c>
       <c r="D199" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E199">
         <v>81.863</v>
       </c>
       <c r="F199" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5287,19 +5293,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C200">
         <v>0.453</v>
       </c>
       <c r="D200" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E200">
         <v>42.0258</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G200">
         <v>49.5362336910861</v>
@@ -5310,19 +5316,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C201">
         <v>0.761</v>
       </c>
       <c r="D201" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E201">
         <v>55.713</v>
       </c>
       <c r="F201" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G201">
         <v>62.1279101447492</v>
@@ -5333,13 +5339,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D202" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F202" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G202">
         <v>45.6492463273251</v>
@@ -5350,13 +5356,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D203" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F203" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G203">
         <v>78.0701740428281</v>
@@ -5367,19 +5373,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C204">
         <v>0.767</v>
       </c>
       <c r="D204" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E204">
         <v>52.909</v>
       </c>
       <c r="F204" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G204">
         <v>78.9426459642436</v>
@@ -5390,19 +5396,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C205">
         <v>0.329</v>
       </c>
       <c r="D205" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E205">
         <v>38.5534</v>
       </c>
       <c r="F205" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G205">
         <v>65.33595100678239</v>
@@ -5413,19 +5419,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C206">
         <v>0.856</v>
       </c>
       <c r="D206" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E206">
         <v>100</v>
       </c>
       <c r="F206" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G206">
         <v>47.3000216078465</v>
@@ -5436,19 +5442,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C207">
         <v>0.829</v>
       </c>
       <c r="D207" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E207">
         <v>54.9798</v>
       </c>
       <c r="F207" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G207">
         <v>70.4038080126934</v>
@@ -5459,19 +5465,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C208">
         <v>0.876</v>
       </c>
       <c r="D208" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E208">
         <v>50.061</v>
       </c>
       <c r="F208" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5479,19 +5485,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C209">
         <v>0.504</v>
       </c>
       <c r="D209" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E209">
         <v>19.5662</v>
       </c>
       <c r="F209" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G209">
         <v>38.8497880474436</v>
@@ -5502,16 +5508,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D210" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E210">
         <v>36.8632</v>
       </c>
       <c r="F210" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5519,13 +5525,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D211" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F211" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5533,19 +5539,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C212">
         <v>0.61</v>
       </c>
       <c r="D212" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E212">
         <v>61.088</v>
       </c>
       <c r="F212" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G212">
         <v>52.4387730447985</v>
@@ -5556,13 +5562,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D213" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F213" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G213">
         <v>44.3457554487613</v>
@@ -5573,19 +5579,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C214">
         <v>0.874</v>
       </c>
       <c r="D214" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E214">
         <v>77.1674</v>
       </c>
       <c r="F214" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G214">
         <v>54.9562851683916</v>

--- a/Projeto_Entrega1/Projeto1.xlsx
+++ b/Projeto_Entrega1/Projeto1.xlsx
@@ -25,13 +25,13 @@
     <t>País2009</t>
   </si>
   <si>
-    <t>População Urbana em 2009</t>
+    <t>População Urbana em 2009 (%)</t>
   </si>
   <si>
     <t>País</t>
   </si>
   <si>
-    <t>Setor de Serviços em 2009</t>
+    <t>Setor de Serviços em 2009 (%)</t>
   </si>
   <si>
     <t>Abkhazia</t>
